--- a/result_files/final_ood_lapras.xlsx
+++ b/result_files/final_ood_lapras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.865625</v>
+        <v>0.5029619140625</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05036487956651937</v>
+        <v>0.002005119922885285</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.91171875</v>
+        <v>0.5823388671875001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02981060004427956</v>
+        <v>0.02576172856004597</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8609375</v>
+        <v>0.9855908203125001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0488890245223813</v>
+        <v>0.003198751301319827</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.50078125</v>
+        <v>0.986748046875</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04631171979774666</v>
+        <v>0.005920870330859597</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.91953125</v>
+        <v>0.9893168945312499</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07430504851202911</v>
+        <v>0.004586111140172544</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.86796875</v>
+        <v>0.61040869140625</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02548360379734389</v>
+        <v>0.03076917872869236</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7953125</v>
+        <v>0.9361484375</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03702498628460246</v>
+        <v>0.02441054923940287</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8</v>
+        <v>0.8000283203124999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05796011559684815</v>
+        <v>0.05005546415609716</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.95859375</v>
+        <v>0.9982265625</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01858652695839113</v>
+        <v>0.001648521385047209</v>
       </c>
     </row>
     <row r="11">
@@ -549,230 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.853125</v>
+        <v>0.6009599609375</v>
       </c>
       <c r="C11" t="n">
-        <v>0.067775407482176</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.8636114137295191</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0517951208072918</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9110256386483482</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.03030858880563073</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.8582828815892848</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.05177958285980839</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.4850990583433807</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.03702907266559296</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.9185068986806142</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.07543230980102132</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.8656635937100488</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.02748353941379713</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.7807092927776933</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.04632330621588953</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.7752314982174235</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.08767573598631108</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.9583769564759038</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.01897274130644477</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.8505828951995115</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.06919544220630627</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.94879150390625</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.03869328532308846</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.9736083984375</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.02417946367052349</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.93121337890625</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.0260944530826347</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.50902099609375</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.0656675246379526</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.986767578125</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.02465875908253204</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.95079345703125</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.04838541984215908</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.951025390625</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.04990334705755102</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.9190185546875</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.035887642151469</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0.99442138671875</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.002847563146840495</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.95325927734375</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.03112659885329115</v>
+        <v>0.02251405861652189</v>
       </c>
     </row>
   </sheetData>
